--- a/biology/Botanique/Maprounea/Maprounea.xlsx
+++ b/biology/Botanique/Maprounea/Maprounea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maprounea est un genre de plantes à fleurs de la famille des Euphorbiaceae comportant 6 espèces. Ce sont des arbustes ou arbrisseaux. L'espèce type est Maprounea guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Maprounea regroupe des arbustes ou des arbres monoïques (parfois dioïques), glabres partout, à latex blanc peu abondant. Les feuilles sont simples, alternes, pétiolées, à limbe entier, pinnatinervées, glanduleuses sur la face inférieure (rarement dépourvues de glandes). Les petites stipules sont persistantes. Les inflorescences sont terminales, généralement bisexuées, à 1–4 fleurs solitaires, pédicellées, pistillées aux nœuds basaux. Les fleurs staminées sont densément agrégées en une masse strobiforme à l'extrémité du rachis, et séparées de la partie pistillée par un entre-nœud allongé. Les bractées portent deux glandes. Les fleurs staminées sont pour la plupart groupée à 3 par bractée, avec un pédicelle très court, un calice à 2(3) lobes s'imbriquant, dépourvus de pétales et de disque, et généralement 2 étamines, ayant le filet complètement connés en un tube mince exsert du calice à l'anthèse, et des anthères apiculées, extroses et déhiscentes longitudinalement. Les fleurs pistillées sont solitaires à chaque bractée, avec un calice en 3 parties, imbriqué, dépourvus de pétales et de disque, avec 3 carpelles contenant chacun 1 ovule, et portant des styles généralement regroupés en une colonne (libre chez M. amazonica) et les extrémités non ramifiées. Les fruits sont des capsules avec une columelle faiblement persistante. Chaque graine porte une grande caroncule recouvrant en partie son sommet[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Maprounea regroupe des arbustes ou des arbres monoïques (parfois dioïques), glabres partout, à latex blanc peu abondant. Les feuilles sont simples, alternes, pétiolées, à limbe entier, pinnatinervées, glanduleuses sur la face inférieure (rarement dépourvues de glandes). Les petites stipules sont persistantes. Les inflorescences sont terminales, généralement bisexuées, à 1–4 fleurs solitaires, pédicellées, pistillées aux nœuds basaux. Les fleurs staminées sont densément agrégées en une masse strobiforme à l'extrémité du rachis, et séparées de la partie pistillée par un entre-nœud allongé. Les bractées portent deux glandes. Les fleurs staminées sont pour la plupart groupée à 3 par bractée, avec un pédicelle très court, un calice à 2(3) lobes s'imbriquant, dépourvus de pétales et de disque, et généralement 2 étamines, ayant le filet complètement connés en un tube mince exsert du calice à l'anthèse, et des anthères apiculées, extroses et déhiscentes longitudinalement. Les fleurs pistillées sont solitaires à chaque bractée, avec un calice en 3 parties, imbriqué, dépourvus de pétales et de disque, avec 3 carpelles contenant chacun 1 ovule, et portant des styles généralement regroupés en une colonne (libre chez M. amazonica) et les extrémités non ramifiées. Les fruits sont des capsules avec une columelle faiblement persistante. Chaque graine porte une grande caroncule recouvrant en partie son sommet
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Maprounea est présent en Amérique du Sud et en Afrique tropicale et subtropicale.
 </t>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MAPROUNEA. (Tabula 342.)
 Maſculi flores in capitulum ſubrotundum densè congeſti. 
 CAL. Perianthium minimum, monophyllum, quadripartitum ; laciniis oblongis, acutis. 
@@ -609,9 +627,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Maprounea africana Müll.Arg.
 Maprounea amazonica Esser
 Maprounea brasiliensis A.St.-Hil.
